--- a/results/0928/2022-0928_resnet34_malmotest.xlsx
+++ b/results/0928/2022-0928_resnet34_malmotest.xlsx
@@ -1920,37 +1920,37 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3']</t>
+          <t>['FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3']</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[100, 137, 137, 184, 189, 231, 294, 351, 352, 367, 370, 373, 429, 429, 429, 465, 465, 471, 518, 518, 540, 540, 540, 540, 540, 540, 540, 574, 601, 601, 603, 649, 649, 649, 649, 649, 649, 692, 750, 750, 755, 776, 781, 783, 830, 874, 891, 891, 891, 891, 919, 924, 931, 934, 937, 981, 997, 997, 997, 997, 1023, 1041, 1045, 1045, 1047, 1092, 1125, 1125, 1125, 1125, 1153, 1153, 1159, 1197, 1198, 1198, 1198, 1198, 1208, 1208, 1208, 1215, 1251, 1276, 1276, 1306, 1306, 1307, 1310, 1310, 1324, 1329, 1388, 1388, 1388, 1426, 1426, 1430, 1448, 1448, 1451, 1451, 1451, 1451, 1504, 1504, 1504, 1536, 1565, 1565, 1565, 1586, 1586, 1586, 1586, 1586, 1586, 1629, 1690, 1690, 1711, 1748, 1748, 1752, 1753, 1796, 1847, 1900, 1901, 1909, 1916, 1916, 1916, 1916, 1956, 1962, 1969, 1990, 2014, 2014, 2014, 2035, 2035, 2035, 2035, 2037, 2047, 2089, 2147, 2147, 2171, 2208, 2208, 2219, 2233, 2279, 2336, 2391, 2400, 2416, 2420, 2444, 2444, 2444, 2444, 2444, 2444, 2487, 2544, 2544, 2565, 2572, 2576, 2584, 2587, 2632, 2651, 2651, 2651, 2651, 2680, 2680, 2720, 2730, 2730, 2732, 2732, 2732, 2770, 2770, 2770, 2770, 2770, 2770, 2770]</t>
+          <t>[100, 137, 137, 184, 189, 231, 294, 351, 352, 367, 370, 373, 429, 429, 429, 465, 465, 471, 518, 518, 540, 540, 540, 540, 540, 540, 540, 574, 601, 601, 603, 649, 649, 649, 649, 649, 649, 692, 750, 750, 755, 776, 781, 783, 830, 874, 891, 891, 891, 891, 919, 924, 931, 934, 937, 981, 997, 997, 997, 997, 1023, 1041, 1045, 1045, 1047, 1092, 1125, 1125, 1125, 1125, 1153, 1153, 1159, 1197, 1198, 1198, 1198, 1198, 1208, 1208, 1208, 1215, 1251, 1276, 1276, 1306, 1306, 1307, 1310, 1310, 1324, 1329, 1388, 1388, 1388, 1426, 1426, 1430, 1448, 1448, 1451, 1451, 1451, 1451, 1504, 1504, 1504, 1536, 1565, 1565, 1565, 1586, 1586, 1586, 1586, 1586, 1586, 1629, 1690, 1690, 1711, 1748, 1748, 1752, 1753, 1796, 1847, 1900, 1901, 1909, 1916, 1916, 1916, 1916, 1956, 1962, 1969, 1990, 2014, 2014, 2014, 2035, 2035, 2035, 2035, 2037, 2047, 2089, 2147, 2147, 2171, 2208, 2208, 2219, 2233, 2279, 2336, 2391, 2400, 2416, 2420, 2444, 2444, 2444, 2444, 2444, 2444, 2487, 2544, 2544, 2565, 2572, 2576, 2584, 2587, 2632, 2651, 2651, 2651, 2651, 2680, 2680, 2720, 2730, 2730, 2732, 2732, 2732, 2770, 2770, 2770, 2770, 2770, 2770, 2770, 2780, 2780, 2801]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[0.028, 0.029, 0.029, 0.028, 0.028, 0.026, 0.026, 0.022, 0.022, 0.022, 0.022, 0.022, 0.021, 0.021, 0.021, 0.03, 0.03, 0.03, 0.03, 0.03, 0.028, 0.028, 0.028, 0.028, 0.028, 0.028, 0.028, 0.038, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.036, 0.041, 0.041, 0.041, 0.044, 0.045, 0.045, 0.052, 0.052, 0.052, 0.052, 0.052, 0.052, 0.054, 0.054, 0.053, 0.053, 0.053, 0.053, 0.053, 0.053, 0.053, 0.053, 0.052, 0.054, 0.055, 0.055, 0.055, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.045, 0.045, 0.045, 0.046, 0.046, 0.046, 0.046, 0.046, 0.046, 0.046, 0.046, 0.046, 0.046, 0.046, 0.045, 0.045, 0.048, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048]</t>
+          <t>[0.028, 0.029, 0.029, 0.028, 0.028, 0.026, 0.026, 0.022, 0.022, 0.022, 0.022, 0.022, 0.021, 0.021, 0.021, 0.03, 0.03, 0.03, 0.03, 0.03, 0.028, 0.028, 0.028, 0.028, 0.028, 0.028, 0.028, 0.038, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.036, 0.041, 0.041, 0.041, 0.044, 0.045, 0.045, 0.052, 0.052, 0.052, 0.052, 0.052, 0.052, 0.054, 0.054, 0.053, 0.053, 0.053, 0.053, 0.053, 0.053, 0.053, 0.053, 0.052, 0.054, 0.055, 0.055, 0.055, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.051, 0.045, 0.045, 0.045, 0.046, 0.046, 0.046, 0.046, 0.046, 0.046, 0.046, 0.046, 0.046, 0.046, 0.046, 0.045, 0.045, 0.048, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.048, 0.049]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[0, 23.469557285308834, 37.12178790569306, 44.70666260123254, 60.402844971418396, 80.95974404215815, 91.45169295668603, 119.06633266806605, 135.4941693723202, 152.58215789198874, 164.29615778326988, 178.88030737042425, 200.26227229237554, 221.55314837098118, 248.9623471319675, 264.53053212761876, 279.7892773032188, 291.489118027687, 311.29028270244595, 333.56081085205074, 345.45434310436247, 363.0010518789291, 381.07665154933926, 402.8284871816635, 426.04654419422144, 445.3221501588821, 452.62602208852763, 469.753594481945, 488.64377743005747, 513.2012923836708, 518.592461836338, 539.5473880887031, 554.5773383259773, 576.7495757699012, 598.8868728518485, 622.7568369746207, 643.0911713480948, 661.1038719058035, 678.0252574324606, 678.444957435131, 701.9026104807853, 717.1525240778922, 732.9344026207923, 756.5099672436713, 780.2202255845069, 801.7560246109962, 810.644124853611, 838.9890516877174, 852.9818312048911, 852.9818312048911, 863.7128309130668, 878.8072332739829, 895.3183792233466, 917.4104171872137, 939.2610474228858, 960.796846449375, 966.0681464791297, 993.468242418766, 1007.7136233210563, 1007.7136233210563, 1017.7292230486869, 1038.378084027767, 1055.9940657258032, 1079.2441973805426, 1102.0246416687964, 1124.0498906731605, 1135.4639400839806, 1163.336451470852, 1177.6972695231439, 1177.6972695231439, 1188.2494192361833, 1202.027918958664, 1214.6605788707734, 1240.1220824241639, 1258.9741775989532, 1284.0140797138215, 1311.5650261878968, 1333.0564379692078, 1353.7156358003617, 1378.3986344575883, 1385.5318982839585, 1401.476492726803, 1425.9991488337519, 1442.4799344182015, 1471.3574831128121, 1487.2942697644235, 1511.7414011776448, 1522.294886225462, 1543.7445059001448, 1566.0150341928006, 1578.9703148067, 1595.2081769764425, 1617.720321637392, 1637.5373631298542, 1663.967661935091, 1679.6331321537493, 1693.4272197544574, 1704.4418353259562, 1726.0666982829568, 1747.8423252284524, 1768.0333027064798, 1786.510468381643, 1807.7995079934594, 1830.4443917214867, 1856.4847514569756, 1874.9971659362313, 1882.717907041311, 1897.7368511378763, 1916.7677234113214, 1927.6297011792658, 1933.1008147776124, 1953.5267505228517, 1969.4315996825692, 1994.041167539358, 2018.9621750056742, 2041.574791830778, 2061.5024395167825, 2079.5151400744912, 2095.590657585859, 2096.010357588529, 2118.6514088809486, 2143.0444712817666, 2159.3609635770317, 2173.018769550323, 2189.535826349258, 2210.5821753978726, 2219.134875631332, 2244.811645889282, 2260.7667662143704, 2264.4951723575587, 2275.9847229838365, 2294.0206553339954, 2314.1046549677844, 2336.7869567275043, 2361.9004225134845, 2380.976883280277, 2390.6008131146427, 2404.3655123353, 2423.6452952742575, 2449.147330033779, 2454.640651476383, 2476.055454790592, 2492.153003489971, 2514.654010593891, 2534.484693777561, 2557.9799125313757, 2574.748583137989, 2592.342383682728, 2607.6418053746224, 2608.0615053772926, 2629.0571079850197, 2652.4747733712197, 2666.6326421380045, 2679.298597061634, 2693.8363767266273, 2716.351075708866, 2725.9099759697915, 2752.5556809544564, 2768.183026635647, 2802.995835387707, 2815.910075438023, 2837.2607092976573, 2852.5045712113383, 2873.953112185002, 2897.657762897015, 2920.0350655913358, 2938.3359665274625, 2956.348667085171, 2971.6735928177836, 2972.093292820454, 2993.5181933522226, 3014.112991631031, 3030.99770578146, 3045.7841723799706, 3067.6348026156425, 3089.6600516200065, 3098.715851867199, 3127.5330797553065, 3141.771664273739, 3141.771664273739, 3152.8603639721873, 3176.63264824152, 3195.6687162041667, 3213.1958149790767, 3226.4058701395993, 3250.9508336901667, 3277.5328797698025, 3299.423130643368, 3323.736590731144, 3347.7293889641765, 3354.620837044716, 3371.7747415781023, 3391.4570612192156, 3415.444972968102, 3439.5920227289203]</t>
+          <t>[0, 23.469557285308834, 37.12178790569306, 44.70666260123254, 60.402844971418396, 80.95974404215815, 91.45169295668603, 119.06633266806605, 135.4941693723202, 152.58215789198874, 164.29615778326988, 178.88030737042425, 200.26227229237554, 221.55314837098118, 248.9623471319675, 264.53053212761876, 279.7892773032188, 291.489118027687, 311.29028270244595, 333.56081085205074, 345.45434310436247, 363.0010518789291, 381.07665154933926, 402.8284871816635, 426.04654419422144, 445.3221501588821, 452.62602208852763, 469.753594481945, 488.64377743005747, 513.2012923836708, 518.592461836338, 539.5473880887031, 554.5773383259773, 576.7495757699012, 598.8868728518485, 622.7568369746207, 643.0911713480948, 661.1038719058035, 678.0252574324606, 678.444957435131, 701.9026104807853, 717.1525240778922, 732.9344026207923, 756.5099672436713, 780.2202255845069, 801.7560246109962, 810.644124853611, 838.9890516877174, 852.9818312048911, 852.9818312048911, 863.7128309130668, 878.8072332739829, 895.3183792233466, 917.4104171872137, 939.2610474228858, 960.796846449375, 966.0681464791297, 993.468242418766, 1007.7136233210563, 1007.7136233210563, 1017.7292230486869, 1038.378084027767, 1055.9940657258032, 1079.2441973805426, 1102.0246416687964, 1124.0498906731605, 1135.4639400839806, 1163.336451470852, 1177.6972695231439, 1177.6972695231439, 1188.2494192361833, 1202.027918958664, 1214.6605788707734, 1240.1220824241639, 1258.9741775989532, 1284.0140797138215, 1311.5650261878968, 1333.0564379692078, 1353.7156358003617, 1378.3986344575883, 1385.5318982839585, 1401.476492726803, 1425.9991488337519, 1442.4799344182015, 1471.3574831128121, 1487.2942697644235, 1511.7414011776448, 1522.294886225462, 1543.7445059001448, 1566.0150341928006, 1578.9703148067, 1595.2081769764425, 1617.720321637392, 1637.5373631298542, 1663.967661935091, 1679.6331321537493, 1693.4272197544574, 1704.4418353259562, 1726.0666982829568, 1747.8423252284524, 1768.0333027064798, 1786.510468381643, 1807.7995079934594, 1830.4443917214867, 1856.4847514569756, 1874.9971659362313, 1882.717907041311, 1897.7368511378763, 1916.7677234113214, 1927.6297011792658, 1933.1008147776124, 1953.5267505228517, 1969.4315996825692, 1994.041167539358, 2018.9621750056742, 2041.574791830778, 2061.5024395167825, 2079.5151400744912, 2095.590657585859, 2096.010357588529, 2118.6514088809486, 2143.0444712817666, 2159.3609635770317, 2173.018769550323, 2189.535826349258, 2210.5821753978726, 2219.134875631332, 2244.811645889282, 2260.7667662143704, 2264.4951723575587, 2275.9847229838365, 2294.0206553339954, 2314.1046549677844, 2336.7869567275043, 2361.9004225134845, 2380.976883280277, 2390.6008131146427, 2404.3655123353, 2423.6452952742575, 2449.147330033779, 2454.640651476383, 2476.055454790592, 2492.153003489971, 2514.654010593891, 2534.484693777561, 2557.9799125313757, 2574.748583137989, 2592.342383682728, 2607.6418053746224, 2608.0615053772926, 2629.0571079850197, 2652.4747733712197, 2666.6326421380045, 2679.298597061634, 2693.8363767266273, 2716.351075708866, 2725.9099759697915, 2752.5556809544564, 2768.183026635647, 2802.995835387707, 2815.910075438023, 2837.2607092976573, 2852.5045712113383, 2873.953112185002, 2897.657762897015, 2920.0350655913358, 2938.3359665274625, 2956.348667085171, 2971.6735928177836, 2972.093292820454, 2993.5181933522226, 3014.112991631031, 3030.99770578146, 3045.7841723799706, 3067.6348026156425, 3089.6600516200065, 3098.715851867199, 3127.5330797553065, 3141.771664273739, 3141.771664273739, 3152.8603639721873, 3176.63264824152, 3195.6687162041667, 3213.1958149790767, 3226.4058701395993, 3250.9508336901667, 3277.5328797698025, 3299.423130643368, 3323.736590731144, 3347.7293889641765, 3354.620837044716, 3371.7747415781023, 3391.4570612192156, 3415.444972968102, 3439.5920227289203, 3455.8408445119862, 3462.1490509033206, 3473.0230052828792]</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>[0, 7.25, 14.38, 20.36, 28.43, 34.62, 44.15, 53.06, 61.63, 71.56, 79.85, 89.42, 98.92, 108.91, 119.65, 129.21, 137.66, 147.15, 157.24, 168.89, 179.96, 189.81, 199.39, 209.09, 219.97, 230.64, 242.07, 253.57, 263.86, 274.98, 285.2, 297.23, 309.97, 322.36, 333.62, 344.9, 355.53, 366.82, 379.21, 392.7, 407.6, 421.09, 434.5, 448.45, 460.11, 471.17, 483.61, 497.01, 511.09, 525.1, 540.68, 554.24, 568.87, 580.99, 592.38, 605.22, 619.74, 634.12, 649.08, 665.21, 678.45, 693.71, 707.84, 720.81, 735.73, 749.31, 761.64, 777.19, 792.37, 808.98, 824.79, 839.21, 853.86, 869.88, 884.36, 898.86, 912.59, 924.72, 938.68, 952.75, 966.88, 981.94, 997.16, 1011.16, 1029.01, 1046.39, 1063.55, 1078.44, 1091.93, 1108.87, 1126.25, 1143.23, 1161.15, 1176.48, 1193.41, 1207.97, 1224.39, 1239.86, 1252.48, 1269.29, 1284.26, 1300.28, 1317.45, 1332.67, 1350.39, 1368.51, 1386.94, 1403.37, 1421.2, 1438.97, 1453.91, 1471.8, 1486.01, 1503.32, 1520.79, 1537.31, 1556.31, 1573.13, 1591.76, 1609.41, 1629.58, 1646.67, 1665.83, 1682.66, 1699.01, 1717.0, 1731.41, 1748.51, 1763.97, 1779.03, 1797.77, 1814.89, 1834.01, 1851.99, 1870.49, 1888.16, 1906.77, 1926.14, 1944.49, 1963.75, 1981.74, 2000.6, 2018.26, 2038.52, 2055.36, 2071.83, 2088.57, 2104.29, 2121.15, 2137.79, 2156.3, 2172.58, 2190.18, 2209.82, 2227.93, 2246.7, 2266.08, 2286.71, 2306.38, 2326.18, 2345.91, 2363.88, 2381.23, 2399.82, 2420.41, 2437.6, 2454.58, 2473.0, 2488.37, 2504.95, 2521.41, 2537.84, 2555.4, 2573.07, 2591.57, 2609.65, 2627.73, 2648.76, 2667.99, 2686.68, 2705.61, 2725.68, 2746.5, 2765.73, 2786.45, 2807.14, 2825.14, 2843.44, 2863.4, 2883.77, 2901.91, 2917.32, 2935.08, 2952.81, 2971.89]</t>
+          <t>[0, 7.25, 14.38, 20.36, 28.43, 34.62, 44.15, 53.06, 61.63, 71.56, 79.85, 89.42, 98.92, 108.91, 119.65, 129.21, 137.66, 147.15, 157.24, 168.89, 179.96, 189.81, 199.39, 209.09, 219.97, 230.64, 242.07, 253.57, 263.86, 274.98, 285.2, 297.23, 309.97, 322.36, 333.62, 344.9, 355.53, 366.82, 379.21, 392.7, 407.6, 421.09, 434.5, 448.45, 460.11, 471.17, 483.61, 497.01, 511.09, 525.1, 540.68, 554.24, 568.87, 580.99, 592.38, 605.22, 619.74, 634.12, 649.08, 665.21, 678.45, 693.71, 707.84, 720.81, 735.73, 749.31, 761.64, 777.19, 792.37, 808.98, 824.79, 839.21, 853.86, 869.88, 884.36, 898.86, 912.59, 924.72, 938.68, 952.75, 966.88, 981.94, 997.16, 1011.16, 1029.01, 1046.39, 1063.55, 1078.44, 1091.93, 1108.87, 1126.25, 1143.23, 1161.15, 1176.48, 1193.41, 1207.97, 1224.39, 1239.86, 1252.48, 1269.29, 1284.26, 1300.28, 1317.45, 1332.67, 1350.39, 1368.51, 1386.94, 1403.37, 1421.2, 1438.97, 1453.91, 1471.8, 1486.01, 1503.32, 1520.79, 1537.31, 1556.31, 1573.13, 1591.76, 1609.41, 1629.58, 1646.67, 1665.83, 1682.66, 1699.01, 1717.0, 1731.41, 1748.51, 1763.97, 1779.03, 1797.77, 1814.89, 1834.01, 1851.99, 1870.49, 1888.16, 1906.77, 1926.14, 1944.49, 1963.75, 1981.74, 2000.6, 2018.26, 2038.52, 2055.36, 2071.83, 2088.57, 2104.29, 2121.15, 2137.79, 2156.3, 2172.58, 2190.18, 2209.82, 2227.93, 2246.7, 2266.08, 2286.71, 2306.38, 2326.18, 2345.91, 2363.88, 2381.23, 2399.82, 2420.41, 2437.6, 2454.58, 2473.0, 2488.37, 2504.95, 2521.41, 2537.84, 2555.4, 2573.07, 2591.57, 2609.65, 2627.73, 2648.76, 2667.99, 2686.68, 2705.61, 2725.68, 2746.5, 2765.73, 2786.45, 2807.14, 2825.14, 2843.44, 2863.4, 2883.77, 2901.91, 2917.32, 2935.08, 2952.81, 2971.89, 2989.84, 3006.51, 3025.44]</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>[0, 0, 0, -10, 0, 0, -10, 0, -10, 0, -10, -10, 0, 0, 0, 0, 0, 0, -10, -10, -10, 0, 0, 0, -20, 0, -20, -20, 0, -20, 0, 0, 0, -20, 0, 0, -10, -20, -20, -20, -10, -20, 0, -20, -20, -20, 0, 0, 0, 0, 0, 0, 0, -20, -20, -20, 0, -20, 0, 0, 0, 0, 0, -20, -20, 0, -20, 0, -20, -20, -10, -20, -10, -20, -10, -10, -10, -10, 0, 0, -10, -10, 0, 0, -10, 0, -10, 0, -10, 0, 0, 0, 0, -10, -10, -10, 0, -10, -20, -20]</t>
+          <t>[0, 0, 0, -10, 0, 0, -10, 0, -10, 0, -10, -10, 0, 0, 0, 0, 0, 0, -10, -10, -10, 0, 0, 0, -20, 0, -20, -20, 0, -20, 0, 0, 0, -20, 0, 0, -10, -20, -20, -20, -10, -20, 0, -20, -20, -20, 0, 0, 0, 0, 0, 0, 0, -20, -20, -20, 0, -20, 0, 0, 0, 0, 0, -20, -20, 0, -20, 0, 0, -20, -10, -20, -20, -20, -10, -10, -10, -10, 0, 0, -10, -10, 0, 0, -10, 0, -10, 0, -10, -10, 0, 0, 0, -10, -10, -10, 0, -10, -20, -20]</t>
         </is>
       </c>
     </row>
@@ -2058,37 +2058,37 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2']</t>
+          <t>['FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5']</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[100, 141, 141, 144, 146, 189, 250, 305, 306, 327, 330, 375, 375, 375, 375, 386, 386, 434, 497, 497, 502, 517, 517, 517, 517, 517, 517, 563, 624, 624, 636, 660, 675, 675, 697, 740, 763, 763, 763, 763, 786, 786, 786, 786, 814, 814, 817, 864, 891, 891, 891, 891, 891, 891, 915, 915, 918, 955, 986, 986, 986, 1028, 1028, 1085, 1088, 1135, 1191, 1245, 1253, 1264, 1270, 1311, 1311, 1339, 1339, 1386, 1447, 1501, 1508, 1567, 1570, 1570, 1572, 1586, 1586, 1586, 1586, 1586, 1586, 1586, 1586, 1586, 1586, 1590, 1590, 1592, 1592, 1601, 1616, 1616, 1617, 1618, 1626, 1632, 1635, 1681, 1709, 1709, 1709, 1709, 1734, 1734, 1734, 1734, 1781, 1782, 1782, 1825, 1854, 1854, 1854, 1854, 1854, 1857, 1857, 1880, 1880, 1917, 1958, 1958, 1958, 1993, 1993, 1993, 1993, 2010, 2010, 2056]</t>
+          <t>[100, 141, 141, 144, 146, 189, 250, 305, 306, 327, 330, 375, 375, 375, 375, 386, 386, 434, 497, 497, 502, 517, 517, 517, 517, 517, 517, 563, 624, 624, 636, 660, 675, 675, 697, 740, 763, 763, 763, 763, 786, 786, 786, 786, 814, 814, 817, 864, 891, 891, 891, 891, 891, 891, 915, 915, 918, 955, 986, 986, 986, 1028, 1028, 1085, 1088, 1135, 1191, 1245, 1253, 1264, 1270, 1311, 1311, 1339, 1339, 1386, 1447, 1501, 1508, 1567, 1570, 1570, 1572, 1586, 1586, 1586, 1586, 1586, 1586, 1586, 1586, 1586, 1586, 1590, 1590, 1592, 1592, 1601, 1616, 1616, 1617, 1618, 1626, 1632, 1635, 1681, 1709, 1709, 1709, 1709, 1734, 1734, 1734, 1734, 1781, 1782, 1782, 1825, 1854, 1854, 1854, 1854, 1854, 1857, 1857, 1880, 1880, 1917, 1958, 1958, 1958, 1993, 1993, 1993, 1993, 2010, 2010, 2056, 2113, 2113, 2122]</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[0.028, 0.029, 0.029, 0.028, 0.027, 0.026, 0.026, 0.022, 0.022, 0.022, 0.022, 0.022, 0.022, 0.022, 0.022, 0.027, 0.027, 0.028, 0.025, 0.025, 0.026, 0.025, 0.025, 0.025, 0.025, 0.025, 0.025, 0.025, 0.025, 0.025, 0.038, 0.042, 0.035, 0.035, 0.042, 0.044, 0.045, 0.045, 0.045, 0.045, 0.047, 0.047, 0.047, 0.047, 0.045, 0.045, 0.046, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.042, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.041, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.039, 0.039, 0.04, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.048, 0.048, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049]</t>
+          <t>[0.028, 0.029, 0.029, 0.028, 0.027, 0.026, 0.026, 0.022, 0.022, 0.022, 0.022, 0.022, 0.022, 0.022, 0.022, 0.027, 0.027, 0.028, 0.025, 0.025, 0.026, 0.025, 0.025, 0.025, 0.025, 0.025, 0.025, 0.025, 0.025, 0.025, 0.038, 0.042, 0.035, 0.035, 0.042, 0.044, 0.045, 0.045, 0.045, 0.045, 0.047, 0.047, 0.047, 0.047, 0.045, 0.045, 0.046, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.042, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.041, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.039, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.039, 0.039, 0.04, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.041, 0.048, 0.048, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.049, 0.051]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200]</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[0, 25.385892009735105, 43.3929322421551, 58.24514343738557, 73.76005576848985, 94.80640481710435, 105.03610509634018, 131.68181008100512, 146.58707846403124, 171.32266899347306, 184.65816905498505, 207.81290118694307, 224.19949919581416, 246.1023892104626, 269.59755396246914, 294.2543273866177, 311.74185494780545, 331.84905557036404, 348.44197029471405, 348.86167029738436, 374.3420737206937, 396.07150651812566, 413.3426295578481, 436.2456404268743, 457.55957580208786, 480.99554057717336, 497.66969476342217, 516.9390953600408, 533.1513642609121, 533.5710642635825, 556.6166656315329, 571.1970113575461, 590.6139133036139, 606.6385601580146, 628.4891903936866, 649.5355394423011, 661.598488134146, 688.9985840737822, 703.1823592841628, 703.1823592841628, 713.5765854835513, 733.4671470880511, 755.1578666925433, 779.5304123640063, 804.6304636240009, 821.2145369529727, 829.699972033501, 843.4198474049572, 861.6715196967128, 887.1735544562343, 892.5473446369175, 909.0639526367191, 928.3445922851566, 950.4894269466404, 975.6138433933262, 991.598315405846, 1001.2382901549344, 1025.759497392178, 1045.888824975491, 1051.55594381094, 1056.9921912193302, 1082.8641198635105, 1099.6393183946614, 1106.003453445435, 1121.4079187870032, 1144.4120677471167, 1153.8032680034644, 1179.9645056247718, 1197.2780395746238, 1213.0885159730917, 1225.7223627924925, 1250.15361827612, 1265.1839305877693, 1276.6964006483563, 1290.1413096725948, 1313.1454586327084, 1323.4705084860332, 1349.6317461073406, 1366.851724463702, 1394.348719769717, 1407.2476199090488, 1432.0898747146136, 1433.517579811812, 1456.6227781474597, 1469.380430024863, 1491.5856176316745, 1520.1403141438968, 1542.483446449042, 1561.9338001191622, 1576.5859970986849, 1583.3565425813204, 1602.012310403586, 1610.8492702424533, 1634.7502625644213, 1658.0099318206317, 1675.539663547278, 1682.95553572774, 1697.26941497922, 1717.869504600764, 1747.6218784868724, 1753.5218082845217, 1776.65278839469, 1795.1383512675768, 1819.479111117125, 1844.5840905368334, 1867.0987895190722, 1876.825389784575, 1904.6977568328386, 1919.048873275519, 1919.048873275519, 1928.527923017741, 1945.8708322107798, 1966.3565118372446, 1990.8373675644405, 2014.5525990307337, 2031.8587198793894, 2039.6593549788004, 2053.9572320282464, 2073.30735962987, 2093.614535456896, 2099.346863561869, 2115.654116660357, 2137.6942288458354, 2162.849797326327, 2186.109466582537, 2207.639700132609, 2215.9007826626307, 2229.3707469880587, 2249.8842658698563, 2275.3863006293777, 2281.124033457041, 2302.9511622011664, 2316.2954197824006, 2338.051013439894, 2362.758933514357, 2388.5464980304246, 2408.0674590289595, 2427.336859625578]</t>
+          <t>[0, 25.385892009735105, 43.3929322421551, 58.24514343738557, 73.76005576848985, 94.80640481710435, 105.03610509634018, 131.68181008100512, 146.58707846403124, 171.32266899347306, 184.65816905498505, 207.81290118694307, 224.19949919581416, 246.1023892104626, 269.59755396246914, 294.2543273866177, 311.74185494780545, 331.84905557036404, 348.44197029471405, 348.86167029738436, 374.3420737206937, 396.07150651812566, 413.3426295578481, 436.2456404268743, 457.55957580208786, 480.99554057717336, 497.66969476342217, 516.9390953600408, 533.1513642609121, 533.5710642635825, 556.6166656315329, 571.1970113575461, 590.6139133036139, 606.6385601580146, 628.4891903936866, 649.5355394423011, 661.598488134146, 688.9985840737822, 703.1823592841628, 703.1823592841628, 713.5765854835513, 733.4671470880511, 755.1578666925433, 779.5304123640063, 804.6304636240009, 821.2145369529727, 829.699972033501, 843.4198474049572, 861.6715196967128, 887.1735544562343, 892.5473446369175, 909.0639526367191, 928.3445922851566, 950.4894269466404, 975.6138433933262, 991.598315405846, 1001.2382901549344, 1025.759497392178, 1045.888824975491, 1051.55594381094, 1056.9921912193302, 1082.8641198635105, 1099.6393183946614, 1106.003453445435, 1121.4079187870032, 1144.4120677471167, 1153.8032680034644, 1179.9645056247718, 1197.2780395746238, 1213.0885159730917, 1225.7223627924925, 1250.15361827612, 1265.1839305877693, 1276.6964006483563, 1290.1413096725948, 1313.1454586327084, 1323.4705084860332, 1349.6317461073406, 1366.851724463702, 1394.348719769717, 1407.2476199090488, 1432.0898747146136, 1433.517579811812, 1456.6227781474597, 1469.380430024863, 1491.5856176316745, 1520.1403141438968, 1542.483446449042, 1561.9338001191622, 1576.5859970986849, 1583.3565425813204, 1602.012310403586, 1610.8492702424533, 1634.7502625644213, 1658.0099318206317, 1675.539663547278, 1682.95553572774, 1697.26941497922, 1717.869504600764, 1747.6218784868724, 1753.5218082845217, 1776.65278839469, 1795.1383512675768, 1819.479111117125, 1844.5840905368334, 1867.0987895190722, 1876.825389784575, 1904.6977568328386, 1919.048873275519, 1919.048873275519, 1928.527923017741, 1945.8708322107798, 1966.3565118372446, 1990.8373675644405, 2014.5525990307337, 2031.8587198793894, 2039.6593549788004, 2053.9572320282464, 2073.30735962987, 2093.614535456896, 2099.346863561869, 2115.654116660357, 2137.6942288458354, 2162.849797326327, 2186.109466582537, 2207.639700132609, 2215.9007826626307, 2229.3707469880587, 2249.8842658698563, 2275.3863006293777, 2281.124033457041, 2302.9511622011664, 2316.2954197824006, 2338.051013439894, 2362.758933514357, 2388.5464980304246, 2408.0674590289595, 2427.336859625578, 2442.514334100485, 2442.934034103155, 2462.3461863934995]</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>[0, 7.45, 15.6, 23.17, 29.27, 36.92, 44.41, 52.42, 61.26, 70.39, 80.74, 90.03, 98.46, 107.44, 115.92, 124.11, 132.19, 141.02, 150.58, 159.98, 169.44, 179.72, 189.67, 200.8, 210.0, 218.41, 228.08, 239.86, 251.46, 261.34, 272.7, 283.56, 294.15, 303.42, 314.92, 328.69, 338.83, 351.07, 364.87, 377.78, 390.28, 404.6, 418.78, 433.23, 446.99, 459.43, 471.78, 485.11, 496.91, 510.69, 523.47, 534.95, 547.03, 560.88, 574.95, 588.5, 604.16, 618.84, 635.01, 651.02, 665.1, 679.9, 694.9, 707.71, 723.0, 735.87, 747.49, 762.28, 776.16, 787.57, 801.32, 816.95, 831.57, 847.64, 863.66, 878.8, 894.87, 911.02, 927.41, 943.16, 958.41, 974.28, 989.27, 1003.65, 1020.26, 1032.57, 1048.01, 1061.87, 1076.72, 1090.99, 1105.41, 1119.88, 1136.52, 1152.46, 1168.42, 1184.18, 1200.37, 1217.64, 1235.29, 1251.92, 1268.51, 1284.31, 1299.6, 1316.08, 1332.5, 1348.46, 1364.78, 1379.43, 1394.05, 1408.96, 1422.36, 1436.52, 1451.65, 1466.4, 1482.62, 1499.16, 1515.33, 1530.4, 1547.41, 1565.25, 1583.68, 1602.09, 1618.02, 1637.55, 1651.64, 1669.4, 1686.41, 1704.96, 1722.14, 1739.13, 1757.6, 1775.44, 1792.72, 1806.62, 1821.32, 1837.99, 1855.0, 1872.89]</t>
+          <t>[0, 7.45, 15.6, 23.17, 29.27, 36.92, 44.41, 52.42, 61.26, 70.39, 80.74, 90.03, 98.46, 107.44, 115.92, 124.11, 132.19, 141.02, 150.58, 159.98, 169.44, 179.72, 189.67, 200.8, 210.0, 218.41, 228.08, 239.86, 251.46, 261.34, 272.7, 283.56, 294.15, 303.42, 314.92, 328.69, 338.83, 351.07, 364.87, 377.78, 390.28, 404.6, 418.78, 433.23, 446.99, 459.43, 471.78, 485.11, 496.91, 510.69, 523.47, 534.95, 547.03, 560.88, 574.95, 588.5, 604.16, 618.84, 635.01, 651.02, 665.1, 679.9, 694.9, 707.71, 723.0, 735.87, 747.49, 762.28, 776.16, 787.57, 801.32, 816.95, 831.57, 847.64, 863.66, 878.8, 894.87, 911.02, 927.41, 943.16, 958.41, 974.28, 989.27, 1003.65, 1020.26, 1032.57, 1048.01, 1061.87, 1076.72, 1090.99, 1105.41, 1119.88, 1136.52, 1152.46, 1168.42, 1184.18, 1200.37, 1217.64, 1235.29, 1251.92, 1268.51, 1284.31, 1299.6, 1316.08, 1332.5, 1348.46, 1364.78, 1379.43, 1394.05, 1408.96, 1422.36, 1436.52, 1451.65, 1466.4, 1482.62, 1499.16, 1515.33, 1530.4, 1547.41, 1565.25, 1583.68, 1602.09, 1618.02, 1637.55, 1651.64, 1669.4, 1686.41, 1704.96, 1722.14, 1739.13, 1757.6, 1775.44, 1792.72, 1806.62, 1821.32, 1837.99, 1855.0, 1872.89, 1888.5, 1904.18, 1921.47]</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>[0, -10, -10, 0, -20, 0, -10, 0, -10, 0, -20, 0, 0, 0, -20, -10, 0, -10, -20, -10, -20, 0, 0, 0, 0, 0, 0, 0, -10, -10, -10, 0, 0, 0, -10, 0, 0, 0, 0, -10, -20, -20, -20, -10, -20, -20, 0, -20, -10, -20, 0, 0, -10, -10, 0, 0, 0, 0, -20, -10, -20, 0, 0, 0, 0, -10, 0, -10, 0, -20, 0, 0, -20, 0, -20, -10, 0, -10, -10, 0, 0, -20, 0, 0, -10, 0, -20, 0, 0, 0, 0, -20, 0, -10, -10, -20, -20, -20, -20, -20]</t>
+          <t>[0, 0, -10, -20, 0, 0, 0, -20, 0, -20, 0, 0, 0, -10, 0, 0, 0, -10, -20, -10, 0, -10, 0, -10, 0, -10, -10, 0, -10, -10, -10, -20, -20, 0, -10, -20, 0, -20, -10, -20, -20, -10, 0, -10, 0, 0, -20, -10, 0, 0, 0, -20, -20, -20, 0, -10, -20, -20, 0, 0, -20, -20, -20, -20, 0, 0, 0, 0, -20, 0, 0, -10, -10, 0, -10, -10, 0, 0, -10, 0, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, 0, -20, -20, 0, -20, -20, 0, -10]</t>
         </is>
       </c>
     </row>
@@ -2127,37 +2127,37 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4']</t>
+          <t>['FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1']</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[100, 142, 142, 145, 148, 194, 248, 302, 303, 319, 322, 329, 345, 345, 345, 380, 380, 380, 388, 388, 389, 389, 392, 416, 416, 416, 416, 416, 449, 449, 449, 489, 489, 522, 522, 570, 632, 683, 684, 687, 691, 702, 702, 702, 702, 702, 703, 748, 809, 809, 816, 816, 818, 842, 845, 845, 845, 846, 851, 851, 851, 876, 876, 887, 887, 936, 998, 1052, 1053, 1116, 1125, 1134, 1146, 1149, 1149, 1184, 1184, 1189, 1191, 1191, 1198, 1198, 1201, 1239, 1239, 1239, 1239, 1239, 1250, 1250, 1250, 1255, 1262, 1266, 1266, 1313, 1313, 1320, 1327, 1327, 1347, 1366, 1392, 1403, 1403, 1446, 1446, 1460, 1477, 1477, 1490, 1490, 1494, 1498, 1498, 1498, 1499, 1538, 1541, 1541, 1541, 1547, 1565, 1565, 1615, 1662, 1688, 1688, 1688, 1688, 1714, 1714, 1720, 1736, 1736, 1736, 1736, 1736, 1739, 1739, 1739, 1739, 1739, 1739, 1739, 1752, 1753, 1796, 1815, 1815, 1815, 1842, 1842, 1842, 1842, 1842, 1842, 1888, 1950, 1950]</t>
+          <t>[100, 142, 142, 145, 148, 194, 248, 302, 303, 319, 322, 329, 345, 345, 345, 380, 380, 380, 388, 388, 389, 389, 392, 416, 416, 416, 416, 416, 449, 449, 449, 489, 489, 522, 522, 570, 632, 683, 684, 687, 691, 702, 702, 702, 702, 702, 703, 748, 809, 809, 816, 816, 818, 842, 845, 845, 845, 846, 851, 851, 851, 876, 876, 887, 887, 936, 998, 1052, 1053, 1116, 1125, 1134, 1146, 1149, 1149, 1184, 1184, 1189, 1191, 1191, 1198, 1198, 1201, 1239, 1239, 1239, 1239, 1239, 1250, 1250, 1250, 1255, 1262, 1266, 1266, 1313, 1313, 1320, 1327, 1327, 1347, 1366, 1392, 1403, 1403, 1446, 1446, 1460, 1477, 1477, 1490, 1490, 1494, 1498, 1498, 1498, 1499, 1538, 1541, 1541, 1541, 1547, 1565, 1565, 1615, 1662, 1688, 1688, 1688, 1688, 1714, 1714, 1720, 1736, 1736, 1736, 1736, 1736, 1739, 1739, 1739, 1739, 1739, 1739, 1739, 1752, 1753, 1796, 1815, 1815, 1815, 1842, 1842, 1842, 1842, 1842, 1842, 1888, 1950, 1950, 1966, 1977, 1980, 1984]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.18, 0.165, 0.165, 0.158, 0.158, 0.153, 0.147, 0.142, 0.143, 0.149, 0.149, 0.153, 0.162, 0.162, 0.162, 0.166, 0.166, 0.166, 0.169, 0.169, 0.171, 0.171, 0.173, 0.173, 0.173, 0.173, 0.173, 0.173, 0.177, 0.177, 0.177, 0.176, 0.176, 0.186, 0.186, 0.186, 0.186, 0.185, 0.185, 0.185, 0.185, 0.192, 0.192, 0.192, 0.192, 0.192, 0.192, 0.204, 0.207, 0.207, 0.209, 0.209, 0.209, 0.209, 0.211, 0.211, 0.211, 0.211, 0.211, 0.211, 0.211, 0.211, 0.211, 0.211, 0.211, 0.211, 0.21, 0.208, 0.208, 0.209, 0.209, 0.206, 0.206, 0.213, 0.213, 0.215, 0.215, 0.22, 0.22, 0.22, 0.226, 0.226, 0.228, 0.228, 0.228, 0.228, 0.228, 0.228, 0.228, 0.228, 0.228, 0.23, 0.23, 0.229, 0.229, 0.231, 0.231, 0.234, 0.234, 0.234, 0.233, 0.233, 0.234, 0.234, 0.234, 0.236, 0.236, 0.236, 0.237, 0.237, 0.238, 0.238, 0.238, 0.238, 0.238, 0.238, 0.24, 0.241, 0.241, 0.241, 0.241, 0.241, 0.244, 0.244, 0.254, 0.254, 0.254, 0.254, 0.254, 0.254, 0.255, 0.255, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.261, 0.262, 0.276, 0.283, 0.283, 0.283, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.284, 0.284]</t>
+          <t>[0.18, 0.165, 0.165, 0.158, 0.158, 0.153, 0.147, 0.142, 0.143, 0.149, 0.149, 0.153, 0.162, 0.162, 0.162, 0.166, 0.166, 0.166, 0.169, 0.169, 0.171, 0.171, 0.173, 0.173, 0.173, 0.173, 0.173, 0.173, 0.177, 0.177, 0.177, 0.176, 0.176, 0.186, 0.186, 0.186, 0.186, 0.185, 0.185, 0.185, 0.185, 0.192, 0.192, 0.192, 0.192, 0.192, 0.192, 0.204, 0.207, 0.207, 0.209, 0.209, 0.209, 0.209, 0.211, 0.211, 0.211, 0.211, 0.211, 0.211, 0.211, 0.211, 0.211, 0.211, 0.211, 0.211, 0.21, 0.208, 0.208, 0.209, 0.209, 0.206, 0.206, 0.213, 0.213, 0.215, 0.215, 0.22, 0.22, 0.22, 0.226, 0.226, 0.228, 0.228, 0.228, 0.228, 0.228, 0.228, 0.228, 0.228, 0.228, 0.23, 0.23, 0.229, 0.229, 0.231, 0.231, 0.234, 0.234, 0.234, 0.233, 0.233, 0.234, 0.234, 0.234, 0.236, 0.236, 0.236, 0.237, 0.237, 0.238, 0.238, 0.238, 0.238, 0.238, 0.238, 0.24, 0.241, 0.241, 0.241, 0.241, 0.241, 0.244, 0.244, 0.254, 0.254, 0.254, 0.254, 0.254, 0.254, 0.255, 0.255, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.256, 0.261, 0.262, 0.276, 0.283, 0.283, 0.283, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.284, 0.284, 0.286, 0.288, 0.288, 0.29]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[0, 25.86507978439331, 42.18178004026415, 56.83045872449876, 69.38860260248187, 91.90330158472064, 100.95910183191302, 127.12033945322041, 142.73492406606678, 167.68591512441637, 180.4664653658867, 195.66328166127207, 218.07746489644052, 237.5307725250721, 263.9610713303089, 277.6688742458821, 295.17560418844226, 309.5133600473404, 336.5599221467972, 359.07790074348446, 380.5853281497955, 384.41642942428587, 397.7039983987808, 421.4167287826538, 432.07733325958253, 456.17232446670533, 483.30492095947267, 505.05763454437255, 528.2519507884979, 543.3825455665589, 550.6367014408112, 575.5366215705872, 589.6976507902145, 603.4069805204869, 621.7151181519032, 645.2087170898915, 655.5543670833111, 680.2622026145459, 696.2033926904202, 706.4565095841884, 716.7381594359874, 738.203690212965, 758.4558514773845, 785.4060265719891, 809.6162387549878, 833.096854275465, 851.5506070792675, 870.4011076629162, 886.476625174284, 886.8963251769543, 909.9506784141064, 916.2545421540738, 917.6822472512722, 939.8415615022183, 955.5878611981869, 980.1357972085477, 1005.8024446904661, 1033.3468923509122, 1056.798528569937, 1072.5018562257292, 1079.1059915006163, 1100.1908491075042, 1114.6688101708892, 1123.9117329418661, 1140.2392029821874, 1164.2222518980504, 1174.619652181864, 1200.7808898031715, 1216.4441889584068, 1245.805387336016, 1257.1069272816185, 1265.544914335013, 1288.8871159970765, 1309.3189123809343, 1334.7703112304216, 1349.4388616263873, 1371.198181390763, 1386.6720428228384, 1409.5867674827582, 1432.1047459363942, 1441.9226103186613, 1448.2264740586286, 1461.0169288277632, 1484.1503765225416, 1496.508262121678, 1521.548161423207, 1547.5440580964096, 1570.8131745457656, 1596.0087956547743, 1613.4253909230238, 1620.3168288111692, 1637.895127868653, 1651.2992597103125, 1667.0485581874855, 1692.9894070148475, 1716.4464724540717, 1737.9286727190024, 1749.4555544495588, 1775.2936076045041, 1798.306486666203, 1808.534718036652, 1821.520414566994, 1845.6212898015979, 1865.8008644104007, 1891.7417132377627, 1907.5269192218784, 1936.7824787020686, 1950.8342622637751, 1973.4539639353754, 1994.982141172886, 2008.7952602028847, 2026.0289562523365, 2046.8640284597873, 2072.118478924036, 2097.194521433115, 2113.614234048128, 2121.9203434765336, 2136.9206191837784, 2154.512130218744, 2178.5973852694033, 2184.4138022959232, 2207.4459442198277, 2233.215841370821, 2258.343884545565, 2283.913770991564, 2306.9179199516775, 2316.309120208025, 2345.5988779366016, 2360.2095662176607, 2360.2095662176607, 2370.2251659452913, 2397.7245097458363, 2401.055821639299, 2420.1489532768724, 2434.450883132219, 2459.018324691057, 2485.688921242952, 2508.9302060425275, 2531.43174393773, 2564.5417140305035, 2571.433162111043, 2591.3512056052678, 2613.0195163190356, 2636.932353347539, 2660.1712164819232, 2679.8610836923112, 2689.8758362114418, 2703.886939150094, 2722.9884545862665, 2727.7110536158075, 2733.4662431061256, 2754.3605789005746, 2773.829981690644, 2793.9413149654856, 2816.520337253808, 2841.6922994196407, 2862.4333204805844, 2881.702721077203, 2898.036937195062, 2898.456637197732]</t>
+          <t>[0, 25.86507978439331, 42.18178004026415, 56.83045872449876, 69.38860260248187, 91.90330158472064, 100.95910183191302, 127.12033945322041, 142.73492406606678, 167.68591512441637, 180.4664653658867, 195.66328166127207, 218.07746489644052, 237.5307725250721, 263.9610713303089, 277.6688742458821, 295.17560418844226, 309.5133600473404, 336.5599221467972, 359.07790074348446, 380.5853281497955, 384.41642942428587, 397.7039983987808, 421.4167287826538, 432.07733325958253, 456.17232446670533, 483.30492095947267, 505.05763454437255, 528.2519507884979, 543.3825455665589, 550.6367014408112, 575.5366215705872, 589.6976507902145, 603.4069805204869, 621.7151181519032, 645.2087170898915, 655.5543670833111, 680.2622026145459, 696.2033926904202, 706.4565095841884, 716.7381594359874, 738.203690212965, 758.4558514773845, 785.4060265719891, 809.6162387549878, 833.096854275465, 851.5506070792675, 870.4011076629162, 886.476625174284, 886.8963251769543, 909.9506784141064, 916.2545421540738, 917.6822472512722, 939.8415615022183, 955.5878611981869, 980.1357972085477, 1005.8024446904661, 1033.3468923509122, 1056.798528569937, 1072.5018562257292, 1079.1059915006163, 1100.1908491075042, 1114.6688101708892, 1123.9117329418661, 1140.2392029821874, 1164.2222518980504, 1174.619652181864, 1200.7808898031715, 1216.4441889584068, 1245.805387336016, 1257.1069272816185, 1265.544914335013, 1288.8871159970765, 1309.3189123809343, 1334.7703112304216, 1349.4388616263873, 1371.198181390763, 1386.6720428228384, 1409.5867674827582, 1432.1047459363942, 1441.9226103186613, 1448.2264740586286, 1461.0169288277632, 1484.1503765225416, 1496.508262121678, 1521.548161423207, 1547.5440580964096, 1570.8131745457656, 1596.0087956547743, 1613.4253909230238, 1620.3168288111692, 1637.895127868653, 1651.2992597103125, 1667.0485581874855, 1692.9894070148475, 1716.4464724540717, 1737.9286727190024, 1749.4555544495588, 1775.2936076045041, 1798.306486666203, 1808.534718036652, 1821.520414566994, 1845.6212898015979, 1865.8008644104007, 1891.7417132377627, 1907.5269192218784, 1936.7824787020686, 1950.8342622637751, 1973.4539639353754, 1994.982141172886, 2008.7952602028847, 2026.0289562523365, 2046.8640284597873, 2072.118478924036, 2097.194521433115, 2113.614234048128, 2121.9203434765336, 2136.9206191837784, 2154.512130218744, 2178.5973852694033, 2184.4138022959232, 2207.4459442198277, 2233.215841370821, 2258.343884545565, 2283.913770991564, 2306.9179199516775, 2316.309120208025, 2345.5988779366016, 2360.2095662176607, 2360.2095662176607, 2370.2251659452913, 2397.7245097458363, 2401.055821639299, 2420.1489532768724, 2434.450883132219, 2459.018324691057, 2485.688921242952, 2508.9302060425275, 2531.43174393773, 2564.5417140305035, 2571.433162111043, 2591.3512056052678, 2613.0195163190356, 2636.932353347539, 2660.1712164819232, 2679.8610836923112, 2689.8758362114418, 2703.886939150094, 2722.9884545862665, 2727.7110536158075, 2733.4662431061256, 2754.3605789005746, 2773.829981690644, 2793.9413149654856, 2816.520337253808, 2841.6922994196407, 2862.4333204805844, 2881.702721077203, 2898.036937195062, 2898.456637197732, 2919.47698765397, 2937.976471000909, 2954.5207999527447, 2977.6097914040083]</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>[0, 0.45, 0.79, 1.24, 1.63, 2.07, 2.43, 2.94, 3.43, 3.84, 4.3, 4.78, 5.22, 5.72, 6.38, 6.76, 7.38, 7.94, 8.37, 8.8, 9.21, 9.67, 10.16, 10.66, 11.06, 11.59, 12.2, 12.63, 13.15, 13.66, 14.19, 14.77, 15.22, 15.76, 16.29, 16.87, 17.29, 17.92, 18.47, 18.92, 19.35, 19.92, 20.47, 20.89, 21.62, 22.11, 22.62, 23.33, 23.95, 24.56, 25.07, 25.66, 26.35, 26.85, 27.36, 27.88, 28.45, 29.1, 29.58, 30.04, 30.71, 31.28, 31.81, 32.3, 32.9, 33.45, 34.14, 34.61, 35.27, 35.82, 36.45, 37.06, 37.57, 38.08, 38.75, 39.3, 39.85, 40.5, 41.13, 41.65, 42.25, 42.92, 43.54, 44.23, 45.02, 45.53, 46.19, 46.88, 47.48, 48.12, 48.72, 49.44, 50.05, 50.57, 51.24, 51.87, 52.66, 53.28, 54.13, 54.71, 55.27, 55.87, 56.4, 57.07, 57.74, 58.44, 59.37, 60.1, 60.78, 61.57, 62.27, 63.05, 63.82, 64.51, 65.05, 65.78, 66.59, 67.24, 67.87, 68.62, 69.29, 70.03, 70.62, 71.38, 72.13, 73.17, 73.83, 74.62, 75.54, 76.17, 76.83, 77.74, 78.59, 79.68, 80.37, 81.1, 81.88, 82.58, 83.29, 83.9, 84.62, 85.44, 86.16, 87.14, 87.81, 88.52, 89.24, 90.0, 90.87, 91.74, 92.55, 93.46, 94.14, 94.72, 95.63, 96.53, 97.37, 98.14, 98.98, 99.75]</t>
+          <t>[0, 0.45, 0.79, 1.24, 1.63, 2.07, 2.43, 2.94, 3.43, 3.84, 4.3, 4.78, 5.22, 5.72, 6.38, 6.76, 7.38, 7.94, 8.37, 8.8, 9.21, 9.67, 10.16, 10.66, 11.06, 11.59, 12.2, 12.63, 13.15, 13.66, 14.19, 14.77, 15.22, 15.76, 16.29, 16.87, 17.29, 17.92, 18.47, 18.92, 19.35, 19.92, 20.47, 20.89, 21.62, 22.11, 22.62, 23.33, 23.95, 24.56, 25.07, 25.66, 26.35, 26.85, 27.36, 27.88, 28.45, 29.1, 29.58, 30.04, 30.71, 31.28, 31.81, 32.3, 32.9, 33.45, 34.14, 34.61, 35.27, 35.82, 36.45, 37.06, 37.57, 38.08, 38.75, 39.3, 39.85, 40.5, 41.13, 41.65, 42.25, 42.92, 43.54, 44.23, 45.02, 45.53, 46.19, 46.88, 47.48, 48.12, 48.72, 49.44, 50.05, 50.57, 51.24, 51.87, 52.66, 53.28, 54.13, 54.71, 55.27, 55.87, 56.4, 57.07, 57.74, 58.44, 59.37, 60.1, 60.78, 61.57, 62.27, 63.05, 63.82, 64.51, 65.05, 65.78, 66.59, 67.24, 67.87, 68.62, 69.29, 70.03, 70.62, 71.38, 72.13, 73.17, 73.83, 74.62, 75.54, 76.17, 76.83, 77.74, 78.59, 79.68, 80.37, 81.1, 81.88, 82.58, 83.29, 83.9, 84.62, 85.44, 86.16, 87.14, 87.81, 88.52, 89.24, 90.0, 90.87, 91.74, 92.55, 93.46, 94.14, 94.72, 95.63, 96.53, 97.37, 98.14, 98.98, 99.75, 100.49, 101.45, 102.58, 103.48]</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>[-20, 0, 0, 0, 0, -20, -20, -10, 0, 0, -20, 0, 0, -10, 0, 0, -20, -10, -20, -20, 0, -20, 0, -10, 0, -20, 0, 0, 0, -20, 0, 0, 0, 0, -10, 0, -20, -10, 0, -10, -10, 0, 0, 0, -10, -20, -20, 0, 0, -10, 0, 0, -10, -20, 0, 0, 0, -20, -20, 0, -20, -10, -20, -10, 0, -10, 0, -10, 0, -10, -10, -10, 0, 0, 0, 0, -20, 0, 0, -10, 0, -10, 0, -10, 0, -10, -10, -20, 0, -10, 0, -20, -20, 0, -20, -20, 0, 0, -20, -10]</t>
+          <t>[-10, 0, -10, -10, -20, -10, -20, -20, 0, -10, -20, -10, 0, -10, -20, -20, -20, 0, -20, -10, 0, 0, 0, 0, -20, -10, 0, 0, 0, 0, -20, 0, -10, 0, -10, -10, -10, -20, -10, -20, 0, 0, 0, 0, 0, -10, 0, -10, -10, 0, -10, -10, -10, 0, -20, 0, 0, 0, -10, 0, 0, 0, -20, 0, -10, 0, -20, 0, -20, 0, -20, -20, -10, 0, 0, -10, -20, 0, 0, 0, 0, 0, 0, -20, 0, 0, 0, 0, -20, 0, 0, 0, 0, 0, -20, -10, -20, -20, -20, 0]</t>
         </is>
       </c>
     </row>
@@ -2196,37 +2196,37 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1']</t>
+          <t>['FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1']</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[100, 127, 127, 152, 158, 204, 268, 323, 330, 346, 349, 372, 377, 377, 379, 422, 467, 467, 467]</t>
+          <t>[100, 127, 127, 152, 158, 204, 268, 323, 330, 346, 349, 372, 377, 377, 379, 422, 467, 467, 467, 467, 490, 500]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[0.015, 0.015, 0.015, 0.011, 0.014, 0.011, 0.015, 0.015, 0.016, 0.017, 0.017, 0.016, 0.017, 0.017, 0.017, 0.017, 0.019, 0.019, 0.019]</t>
+          <t>[0.015, 0.015, 0.015, 0.011, 0.014, 0.011, 0.015, 0.015, 0.016, 0.017, 0.017, 0.016, 0.017, 0.017, 0.017, 0.017, 0.019, 0.019, 0.019, 0.019, 0.033, 0.033]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[0, 24.351646137237548, 37.80486826300622, 47.45635170340539, 63.43704538941385, 85.95174437165262, 96.32229263186456, 122.96799761652949, 140.55333592295648, 157.5872672021389, 185.24527330994604, 202.38272290825842, 225.37759597897528, 241.54401629567147, 263.3946465313435, 284.440995579958, 295.46100868582727, 327.1126762330532, 338.9891914665699]</t>
+          <t>[0, 24.351646137237548, 37.80486826300622, 47.45635170340539, 63.43704538941385, 85.95174437165262, 96.32229263186456, 122.96799761652949, 140.55333592295648, 157.5872672021389, 185.24527330994604, 202.38272290825842, 225.37759597897528, 241.54401629567147, 263.3946465313435, 284.440995579958, 295.46100868582727, 327.1126762330532, 338.9891914665699, 338.9891914665699, 347.9316912233829, 368.1481058657169]</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>[0, 7.06, 13.24, 20.03, 27.69, 34.23, 41.41, 47.59, 54.5, 61.76, 70.66, 80.58, 88.18, 94.31, 101.45, 109.74, 119.31, 129.61, 139.21]</t>
+          <t>[0, 7.06, 13.24, 20.03, 27.69, 34.23, 41.41, 47.59, 54.5, 61.76, 70.66, 80.58, 88.18, 94.31, 101.45, 109.74, 119.31, 129.61, 139.21, 147.35, 154.94, 165.6]</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>[-10, 0, 0, -20, 0, -20, 0, -20, -10, -10, -10, -10, -20, -10, -10, -10, 0, 0, -10, 0, -10, -10, 0, -10, -10, 0, 0, -10, -20, 0, -20, -20, 0, 0, 0, -20, 0, -20, -20, -20, -20, -20, -20, -20, -20, -20, -20, -20, 0, -20, 0, 0, 0, -20, -20, -20, -10, 0, -20, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, 0, -10, -10, 0, -10, -10, 0, -10, -10, 0, 0, 0, 0, -10, 0, -10, 0, -10, 0, 0, 0, 0, 0, 0, 0, 0, -20, 0]</t>
+          <t>[0, 0, 0, -10, 0, -10, 0, 0, 0, 0, -20, -10, -20, -20, -20, -20, 0, 0, -20, 0, -20, -10, 0, -10, -10, 0, 0, -20, 0, 0, -10, -10, 0, 0, 0, -10, 0, -10, -10, -20, -20, -20, -20, -20, -20, -20, -20, -20, 0, -20, 0, 0, 0, -20, -20, -20, -20, 0, -20, 0, 0, 0, -20, -10, 0, 0, -10, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, -10, -10, -10, 0, -10, -10, -10, 0, -10, -10, -10, -10, 0, -20, 0]</t>
         </is>
       </c>
     </row>
